--- a/Java_020_Bank/은행계정계테이블명세.xlsx
+++ b/Java_020_Bank/은행계정계테이블명세.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505225\Documents\workspace\java\Java_020_Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736F9CAB-D727-4614-A4B3-BD86699D863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9881BF99-04E5-4989-9AB9-B4463C0B955B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -219,10 +219,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>adBalance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>거래일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -296,6 +292,30 @@
   </si>
   <si>
     <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.입출금, 2.적금, 3.대출계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acBalance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acBuId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1198,7 +1218,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E6" sqref="E6:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1951,19 +1971,19 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1984,10 +2004,10 @@
         <v>36</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2009,7 +2029,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2032,7 +2052,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2055,7 +2075,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2078,7 +2098,7 @@
         <v>40</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -2401,7 +2421,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3159,9 +3179,13 @@
       <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -3180,13 +3204,19 @@
       <c r="E7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="15"/>
+      <c r="L7" s="15" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
@@ -3196,13 +3226,17 @@
         <v>46</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3220,10 +3254,14 @@
         <v>42</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -4230,7 +4268,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -4345,13 +4383,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -4366,13 +4404,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -4387,13 +4425,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -4408,13 +4446,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -4429,13 +4467,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>

--- a/Java_020_Bank/은행계정계테이블명세.xlsx
+++ b/Java_020_Bank/은행계정계테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505225\Documents\workspace\java\Java_020_Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9881BF99-04E5-4989-9AB9-B4463C0B955B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EF62EC-B240-4E26-9DCA-0D36064EB1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="고객정보" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -219,103 +219,145 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>거래리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.입출금, 2.적금, 3.대출계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acBalance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acBuId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+  </si>
+  <si>
+    <t>tbl_accList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객의 입출금 내역을 저장하는 table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aioTime</t>
+  </si>
+  <si>
+    <t>aioDiv</t>
+  </si>
+  <si>
+    <t>aioInput</t>
+  </si>
+  <si>
+    <t>aioOutput</t>
+  </si>
+  <si>
+    <t>aioDate</t>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>VARCHAR2(1)</t>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+  </si>
+  <si>
+    <t>출금액</t>
+  </si>
+  <si>
+    <t>입금액</t>
+  </si>
+  <si>
+    <t>문자열</t>
+  </si>
+  <si>
+    <t>거래구분</t>
+  </si>
+  <si>
+    <t>거래시각</t>
+  </si>
+  <si>
     <t>거래일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래시각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래구분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aiDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aiTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aiDiv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aiInput</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aiOutput</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.입출금, 2.적금, 3.대출계좌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>acBalance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>acBuId</t>
+  </si>
+  <si>
+    <t>acNum</t>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+  </si>
+  <si>
+    <t>aioSEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aioREM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1217,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E11"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1971,19 +2013,19 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2004,10 +2046,10 @@
         <v>36</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2029,7 +2071,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2052,7 +2094,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2075,7 +2117,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2098,7 +2140,7 @@
         <v>40</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -2421,7 +2463,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3180,11 +3222,11 @@
         <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3205,17 +3247,17 @@
         <v>44</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="15" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3226,16 +3268,16 @@
         <v>46</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -3254,13 +3296,13 @@
         <v>42</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -3611,8 +3653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAAC708-4D11-4DB4-AC1E-9CDA2B7D4F46}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4268,7 +4310,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -4291,7 +4333,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -4310,7 +4352,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -4362,17 +4404,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -4383,16 +4429,20 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -4404,16 +4454,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -4425,16 +4479,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -4446,16 +4504,20 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -4467,16 +4529,20 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -4487,11 +4553,21 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -4502,10 +4578,18 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
